--- a/diagram/Ar4_diagram.xlsx
+++ b/diagram/Ar4_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CF0DC-2160-4B22-AD0D-CCAF03178F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97298589-FEAE-4FDC-8C31-D6DD97184371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="1425" windowWidth="21600" windowHeight="11235" xr2:uid="{21ED56F5-050F-415B-9EE0-29B5FD0E8F4C}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="12240" windowHeight="11235" xr2:uid="{21ED56F5-050F-415B-9EE0-29B5FD0E8F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouth </t>
-  </si>
-  <si>
-    <t>side_eye</t>
-  </si>
-  <si>
-    <t>up_eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head </t>
-  </si>
-  <si>
-    <t xml:space="preserve">neck </t>
-  </si>
-  <si>
-    <t>side_neck</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
-    <t>Dir</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Dir2</t>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Degree (A)</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>right_shoulder_z</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>right_bicept</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>right_shoulder_y</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>right_shoulder_x</t>
+  </si>
+  <si>
+    <t>M4</t>
   </si>
 </sst>
 </file>
@@ -127,15 +133,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40351368-D09D-409E-8740-AD6520A39908}" name="head" displayName="head" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{40351368-D09D-409E-8740-AD6520A39908}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}" name="right_arm" displayName="right_arm" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CBA9C17C-35B6-4B18-9C25-CC07EB8737B0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7AC5187E-C3E2-428A-BD26-3C0F9B468719}" name="Pin"/>
-    <tableColumn id="3" xr3:uid="{FDD9C137-2431-4339-8AF0-9EB01CE7EB8F}" name="Min"/>
-    <tableColumn id="4" xr3:uid="{50E8B478-01A7-4EC9-898B-5AFAFC9D6C23}" name="Dir"/>
-    <tableColumn id="5" xr3:uid="{0A2B319D-21D9-4182-BDDF-5DAF848E0FC5}" name="Max"/>
-    <tableColumn id="6" xr3:uid="{685FF9EE-CC87-4663-A331-577F116250FF}" name="Dir2"/>
+    <tableColumn id="1" xr3:uid="{28B1C3E8-8863-40B0-A48D-96D737409A65}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{719A934E-E19B-4EA4-BFF4-D7A035F6BEF0}" name="Num"/>
+    <tableColumn id="3" xr3:uid="{159AB01B-21D8-4774-88A5-8D4C217A2ADF}" name="Degree (A)"/>
+    <tableColumn id="4" xr3:uid="{AE776E12-6F79-4BF6-865E-662A8D7EBCA9}" name="Min"/>
+    <tableColumn id="5" xr3:uid="{E1636143-5F83-4019-B1AC-344930F4A78C}" name="Mid"/>
+    <tableColumn id="6" xr3:uid="{4E84621B-4691-4182-B746-9EBC2595851F}" name="Max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,15 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F52B34C-3AD8-4058-B311-96787D72F702}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -474,67 +481,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
